--- a/mosquitoes.xlsx
+++ b/mosquitoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9130" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9138" uniqueCount="1523">
   <si>
     <t>2018-07-11</t>
   </si>
@@ -4574,6 +4574,15 @@
   </si>
   <si>
     <t>Monthly Minimum Temperature</t>
+  </si>
+  <si>
+    <t>OZ201416</t>
+  </si>
+  <si>
+    <t>Psorophora ferox</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
   </si>
 </sst>
 </file>
@@ -4953,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1112"/>
+  <dimension ref="A1:N1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1091" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A1092" workbookViewId="0">
+      <selection activeCell="A1113" sqref="A1113:XFD1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45481,6 +45490,42 @@
         <v>17.863425925925934</v>
       </c>
     </row>
+    <row r="1113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1113" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1113" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1113" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1113" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G1113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1113" s="8"/>
+      <c r="I1113" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J1113" s="7">
+        <v>4.9937288135593212</v>
+      </c>
+      <c r="K1113" s="4">
+        <v>16.169191919191917</v>
+      </c>
+      <c r="L1113" s="4">
+        <v>6.4494949494949454</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:L1703">
     <sortCondition ref="G2:G1703"/>
